--- a/medicine/Enfance/Helme_Heine/Helme_Heine.xlsx
+++ b/medicine/Enfance/Helme_Heine/Helme_Heine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helme Heine, né à Berlin le 4 avril 1941 est un écrivain et un illustrateur allemand, spécialisé dans les ouvrages littérature d'enfance et de jeunesse. Il a aussi travaillé pour le théâtre et créé des dessins animés.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils d'un restaurateur et hôtelier de Lübeck, il étudie les sciences économiques et l'histoire de l'art, avant de partir pour l'Afrique du Sud en 1966. À Johannesbourg, il ouvre un cabaret à l'enseigne Sauerkraut (ce qui signifie « choucroute ») et il publie une feuille satirique qui porte le même nom[1]. 
-En 1977, il revient en Allemagne, à Munich. Il  y réalise des dessins animés pour la télévision : Tabaluga, Trois amis mènent l'enquête. Il a aussi travaillé dans le domaine du théâtre où il a été metteur en scène et créateur de décors[1].
-En 1977 également, il obtient la "Mention" Premio Grafico Fiera di Bologna per l'Infanzia, de la Foire du livre de jeunesse de Bologne[2] (Italie) pour  Elefanteneinmaleins (Un éléphant, ça compte énormément).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils d'un restaurateur et hôtelier de Lübeck, il étudie les sciences économiques et l'histoire de l'art, avant de partir pour l'Afrique du Sud en 1966. À Johannesbourg, il ouvre un cabaret à l'enseigne Sauerkraut (ce qui signifie « choucroute ») et il publie une feuille satirique qui porte le même nom. 
+En 1977, il revient en Allemagne, à Munich. Il  y réalise des dessins animés pour la télévision : Tabaluga, Trois amis mènent l'enquête. Il a aussi travaillé dans le domaine du théâtre où il a été metteur en scène et créateur de décors.
+En 1977 également, il obtient la "Mention" Premio Grafico Fiera di Bologna per l'Infanzia, de la Foire du livre de jeunesse de Bologne (Italie) pour  Elefanteneinmaleins (Un éléphant, ça compte énormément).
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Quelques ouvrages traduits en français</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1979, Fier de l'aile, texte et illustrations de Helme Heine, traduction de Patrick Jusserand, Gallimard jeunesse
 1979, Fantadou, texte et illustrations de Helme Heine, traduction de Gilberte Lambrichs, Gallimard jeunesse
@@ -581,10 +597,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1977 : "Mention" Premio Grafico Fiera di Bologna per l'Infanzia, de la Foire du livre de jeunesse de Bologne[2] (Italie) pour  Elefanteneinmaleins (Un éléphant, ça compte énormément).
-1982 : (international) « Honour List »[3] de l' IBBY, pour Der Superhas</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1977 : "Mention" Premio Grafico Fiera di Bologna per l'Infanzia, de la Foire du livre de jeunesse de Bologne (Italie) pour  Elefanteneinmaleins (Un éléphant, ça compte énormément).
+1982 : (international) « Honour List » de l' IBBY, pour Der Superhas</t>
         </is>
       </c>
     </row>
